--- a/biology/Zoologie/Kati_Dagenais/Kati_Dagenais.xlsx
+++ b/biology/Zoologie/Kati_Dagenais/Kati_Dagenais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kati Dagenais (née Kati Alaux le 5 août 1969[1]) est une musher, athlète en course de chiens de traîneaux. Elle a obtenu en 2009 le titre de championne du monde en course de chiens de traîneaux dans les catégories à quatre chiens et six chiens[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kati Dagenais (née Kati Alaux le 5 août 1969) est une musher, athlète en course de chiens de traîneaux. Elle a obtenu en 2009 le titre de championne du monde en course de chiens de traîneaux dans les catégories à quatre chiens et six chiens,.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Palmarès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> : février 2010 - La Classique Rona Dagenais, à Sainte-Agathe-des-Monts - Course à 8 chiens[4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> : février 2010 - La Classique Rona Dagenais, à Sainte-Agathe-des-Monts - Course à 8 chiens
  : 2009 - Championnat du monde en Beauce - Course à 6 chiens
- : 2012 - Limited North American Championship Sled Dog Race - Course à 6 chiens, 8 miles[5]
+ : 2012 - Limited North American Championship Sled Dog Race - Course à 6 chiens, 8 miles
  : 2013 Championnat du monde IFSS à North Pole en Alaska.- Course à 8 chiens, 12 miles</t>
         </is>
       </c>
